--- a/unittestdata/mergewinsstats.xlsx
+++ b/unittestdata/mergewinsstats.xlsx
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>423360000</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="F2">
-        <v>81200000</v>
+        <v>0.012294803961470629</v>
       </c>
       <c r="G2">
-        <v>19600000</v>
+        <v>0.0029677113010446346</v>
       </c>
       <c r="H2">
-        <v>524160000</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19440000</v>
+        <v>0.0029434850863422294</v>
       </c>
       <c r="F3">
-        <v>1485000</v>
+        <v>0.00022484955520669805</v>
       </c>
       <c r="G3">
-        <v>135000</v>
+        <v>0.00002044086865515437</v>
       </c>
       <c r="H3">
-        <v>21060000</v>
+        <v>0.0031887755102040817</v>
       </c>
     </row>
     <row r="4">
@@ -767,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25380000</v>
+        <v>0.0038428833071690216</v>
       </c>
       <c r="F4">
-        <v>2400000</v>
+        <v>0.0003633932205360777</v>
       </c>
       <c r="G4">
-        <v>300000</v>
+        <v>0.00004542415256700971</v>
       </c>
       <c r="H4">
-        <v>28080000</v>
+        <v>0.004251700680272109</v>
       </c>
     </row>
     <row r="5">
@@ -793,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>78246000</v>
+        <v>0.011847527472527472</v>
       </c>
       <c r="F5">
-        <v>9072000</v>
+        <v>0.0013736263736263737</v>
       </c>
       <c r="G5">
-        <v>1134000</v>
+        <v>0.00017170329670329672</v>
       </c>
       <c r="H5">
-        <v>88452000</v>
+        <v>0.013392857142857142</v>
       </c>
     </row>
     <row r="6">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>46575000</v>
+        <v>0.007052099686028258</v>
       </c>
       <c r="F6">
-        <v>5400000</v>
+        <v>0.0008176347462061748</v>
       </c>
       <c r="G6">
-        <v>675000</v>
+        <v>0.00010220434327577185</v>
       </c>
       <c r="H6">
-        <v>52650000</v>
+        <v>0.007971938775510204</v>
       </c>
     </row>
     <row r="7">
@@ -845,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>95175000</v>
+        <v>0.01441081240188383</v>
       </c>
       <c r="F7">
-        <v>8718750</v>
+        <v>0.0013201394339787196</v>
       </c>
       <c r="G7">
-        <v>1406250</v>
+        <v>0.00021292571515785802</v>
       </c>
       <c r="H7">
-        <v>105300000</v>
+        <v>0.01594387755102041</v>
       </c>
     </row>
     <row r="8">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>27720000</v>
+        <v>0.004197191697191697</v>
       </c>
       <c r="F8">
-        <v>4760000</v>
+        <v>0.0007207298873965541</v>
       </c>
       <c r="G8">
-        <v>280000</v>
+        <v>0.00004239587572920906</v>
       </c>
       <c r="H8">
-        <v>32760000</v>
+        <v>0.004960317460317461</v>
       </c>
     </row>
     <row r="9">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>38070000</v>
+        <v>0.005764324960753532</v>
       </c>
       <c r="F9">
-        <v>3600000</v>
+        <v>0.0005450898308041165</v>
       </c>
       <c r="G9">
-        <v>450000</v>
+        <v>0.00006813622885051456</v>
       </c>
       <c r="H9">
-        <v>42120000</v>
+        <v>0.006377551020408163</v>
       </c>
     </row>
     <row r="10">
@@ -923,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>50760000</v>
+        <v>0.007685766614338043</v>
       </c>
       <c r="F10">
-        <v>4650000</v>
+        <v>0.0007040743647886505</v>
       </c>
       <c r="G10">
-        <v>750000</v>
+        <v>0.00011356038141752428</v>
       </c>
       <c r="H10">
-        <v>56160000</v>
+        <v>0.008503401360544218</v>
       </c>
     </row>
     <row r="11">
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>114210000</v>
+        <v>0.017292974882260597</v>
       </c>
       <c r="F11">
-        <v>9787500</v>
+        <v>0.0014819629774986919</v>
       </c>
       <c r="G11">
-        <v>2362500</v>
+        <v>0.00035771520146520144</v>
       </c>
       <c r="H11">
-        <v>126360000</v>
+        <v>0.01913265306122449</v>
       </c>
     </row>
     <row r="12">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>87480000</v>
+        <v>0.1324568288854003</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -984,12 +984,12 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>87480000</v>
+        <v>0.1324568288854003</v>
       </c>
     </row>
     <row r="13">
       <c r="H13">
-        <v>1164582000</v>
+        <v>0.295544980812838</v>
       </c>
     </row>
   </sheetData>

--- a/unittestdata/mergewinsstats.xlsx
+++ b/unittestdata/mergewinsstats.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="rtp" sheetId="2" r:id="rId4"/>
-    <sheet name="winsnum" sheetId="3" r:id="rId6"/>
+    <sheet name="wins number" sheetId="3" r:id="rId6"/>
+    <sheet name="wins number percent" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -715,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0641025641025641</v>
+        <v>423360000</v>
       </c>
       <c r="F2">
-        <v>0.012294803961470629</v>
+        <v>81200000</v>
       </c>
       <c r="G2">
-        <v>0.0029677113010446346</v>
+        <v>19600000</v>
       </c>
       <c r="H2">
-        <v>0.07936507936507936</v>
+        <v>524160000</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +742,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0029434850863422294</v>
+        <v>19440000</v>
       </c>
       <c r="F3">
-        <v>0.00022484955520669805</v>
+        <v>1485000</v>
       </c>
       <c r="G3">
-        <v>0.00002044086865515437</v>
+        <v>135000</v>
       </c>
       <c r="H3">
-        <v>0.0031887755102040817</v>
+        <v>21060000</v>
       </c>
     </row>
     <row r="4">
@@ -767,16 +768,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0038428833071690216</v>
+        <v>25380000</v>
       </c>
       <c r="F4">
-        <v>0.0003633932205360777</v>
+        <v>2400000</v>
       </c>
       <c r="G4">
-        <v>0.00004542415256700971</v>
+        <v>300000</v>
       </c>
       <c r="H4">
-        <v>0.004251700680272109</v>
+        <v>28080000</v>
       </c>
     </row>
     <row r="5">
@@ -793,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.011847527472527472</v>
+        <v>78246000</v>
       </c>
       <c r="F5">
-        <v>0.0013736263736263737</v>
+        <v>9072000</v>
       </c>
       <c r="G5">
-        <v>0.00017170329670329672</v>
+        <v>1134000</v>
       </c>
       <c r="H5">
-        <v>0.013392857142857142</v>
+        <v>88452000</v>
       </c>
     </row>
     <row r="6">
@@ -819,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.007052099686028258</v>
+        <v>46575000</v>
       </c>
       <c r="F6">
-        <v>0.0008176347462061748</v>
+        <v>5400000</v>
       </c>
       <c r="G6">
-        <v>0.00010220434327577185</v>
+        <v>675000</v>
       </c>
       <c r="H6">
-        <v>0.007971938775510204</v>
+        <v>52650000</v>
       </c>
     </row>
     <row r="7">
@@ -845,16 +846,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01441081240188383</v>
+        <v>95175000</v>
       </c>
       <c r="F7">
-        <v>0.0013201394339787196</v>
+        <v>8718750</v>
       </c>
       <c r="G7">
-        <v>0.00021292571515785802</v>
+        <v>1406250</v>
       </c>
       <c r="H7">
-        <v>0.01594387755102041</v>
+        <v>105300000</v>
       </c>
     </row>
     <row r="8">
@@ -871,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.004197191697191697</v>
+        <v>27720000</v>
       </c>
       <c r="F8">
-        <v>0.0007207298873965541</v>
+        <v>4760000</v>
       </c>
       <c r="G8">
-        <v>0.00004239587572920906</v>
+        <v>280000</v>
       </c>
       <c r="H8">
-        <v>0.004960317460317461</v>
+        <v>32760000</v>
       </c>
     </row>
     <row r="9">
@@ -897,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.005764324960753532</v>
+        <v>38070000</v>
       </c>
       <c r="F9">
-        <v>0.0005450898308041165</v>
+        <v>3600000</v>
       </c>
       <c r="G9">
-        <v>0.00006813622885051456</v>
+        <v>450000</v>
       </c>
       <c r="H9">
-        <v>0.006377551020408163</v>
+        <v>42120000</v>
       </c>
     </row>
     <row r="10">
@@ -923,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.007685766614338043</v>
+        <v>50760000</v>
       </c>
       <c r="F10">
-        <v>0.0007040743647886505</v>
+        <v>4650000</v>
       </c>
       <c r="G10">
-        <v>0.00011356038141752428</v>
+        <v>750000</v>
       </c>
       <c r="H10">
-        <v>0.008503401360544218</v>
+        <v>56160000</v>
       </c>
     </row>
     <row r="11">
@@ -949,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.017292974882260597</v>
+        <v>114210000</v>
       </c>
       <c r="F11">
-        <v>0.0014819629774986919</v>
+        <v>9787500</v>
       </c>
       <c r="G11">
-        <v>0.00035771520146520144</v>
+        <v>2362500</v>
       </c>
       <c r="H11">
-        <v>0.01913265306122449</v>
+        <v>126360000</v>
       </c>
     </row>
     <row r="12">
@@ -975,6 +976,334 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>87480000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>87480000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="H13">
+        <v>1164582000</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>660441600000</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.0641025641025641</v>
+      </c>
+      <c r="F2">
+        <v>0.012294803961470629</v>
+      </c>
+      <c r="G2">
+        <v>0.0029677113010446346</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>660441600000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.0029434850863422294</v>
+      </c>
+      <c r="F3">
+        <v>0.00022484955520669805</v>
+      </c>
+      <c r="G3">
+        <v>0.00002044086865515437</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>660441600000</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.0038428833071690216</v>
+      </c>
+      <c r="F4">
+        <v>0.0003633932205360777</v>
+      </c>
+      <c r="G4">
+        <v>0.00004542415256700971</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>660441600000</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.011847527472527472</v>
+      </c>
+      <c r="F5">
+        <v>0.0013736263736263737</v>
+      </c>
+      <c r="G5">
+        <v>0.00017170329670329672</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>660441600000</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.007052099686028258</v>
+      </c>
+      <c r="F6">
+        <v>0.0008176347462061748</v>
+      </c>
+      <c r="G6">
+        <v>0.00010220434327577185</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>660441600000</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.01441081240188383</v>
+      </c>
+      <c r="F7">
+        <v>0.0013201394339787196</v>
+      </c>
+      <c r="G7">
+        <v>0.00021292571515785802</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>660441600000</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.004197191697191697</v>
+      </c>
+      <c r="F8">
+        <v>0.0007207298873965541</v>
+      </c>
+      <c r="G8">
+        <v>0.00004239587572920906</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>660441600000</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.005764324960753532</v>
+      </c>
+      <c r="F9">
+        <v>0.0005450898308041165</v>
+      </c>
+      <c r="G9">
+        <v>0.00006813622885051456</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>660441600000</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.007685766614338043</v>
+      </c>
+      <c r="F10">
+        <v>0.0007040743647886505</v>
+      </c>
+      <c r="G10">
+        <v>0.00011356038141752428</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>660441600000</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.017292974882260597</v>
+      </c>
+      <c r="F11">
+        <v>0.0014819629774986919</v>
+      </c>
+      <c r="G11">
+        <v>0.00035771520146520144</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>66044160000</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0.1324568288854003</v>
       </c>
       <c r="F12">
@@ -984,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.1324568288854003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">

--- a/unittestdata/mergewinsstats.xlsx
+++ b/unittestdata/mergewinsstats.xlsx
@@ -86,120 +86,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="5B9BD5"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4472C4"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック Light"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线 Light"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -255,8 +255,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -278,8 +278,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -295,8 +295,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -333,12 +333,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/unittestdata/mergewinsstats.xlsx
+++ b/unittestdata/mergewinsstats.xlsx
@@ -86,120 +86,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -255,8 +255,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -278,8 +278,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -295,8 +295,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -333,12 +333,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
